--- a/excel/Test1.xlsx
+++ b/excel/Test1.xlsx
@@ -16,16 +16,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>test</t>
   </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>border</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,16 +39,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,12 +69,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,25 +386,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" ht="31.8" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" ht="15" thickBot="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -377,14 +419,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" ht="15.6" thickTop="1" thickBot="1">
       <c r="B4">
         <f>A2+A3</f>
         <v>3</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
+    <row r="5" spans="1:3" ht="15" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/excel/Test1.xlsx
+++ b/excel/Test1.xlsx
@@ -386,23 +386,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
     <col min="3" max="3" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.8" customHeight="1">
+    <row r="2" spans="1:4" ht="31.8" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -410,7 +411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1">
+    <row r="3" spans="1:4" ht="15" thickBot="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -419,7 +420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" thickTop="1" thickBot="1">
+    <row r="4" spans="1:4" ht="15.6" thickTop="1" thickBot="1">
       <c r="B4">
         <f>A2+A3</f>
         <v>3</v>
@@ -428,7 +429,51 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickTop="1"/>
+    <row r="5" spans="1:4" ht="15" thickTop="1">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <f>SUM(A5:A7)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f>SUM(A9:C10)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/excel/Test1.xlsx
+++ b/excel/Test1.xlsx
@@ -386,24 +386,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.8" customHeight="1">
+    <row r="2" spans="1:5" ht="31.8" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -411,7 +412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1">
+    <row r="3" spans="1:5" ht="15" thickBot="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -420,7 +421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" thickTop="1" thickBot="1">
+    <row r="4" spans="1:5" ht="15.6" thickTop="1" thickBot="1">
       <c r="B4">
         <f>A2+A3</f>
         <v>3</v>
@@ -428,18 +429,26 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickTop="1">
+      <c r="E4" t="str">
+        <f>CONCATENATE("turd",B4,C4,"poop",SUM(A2:A3),COUNTA(A5:A7))</f>
+        <v>turd3borderpoop33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickTop="1">
       <c r="A5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="str">
+        <f>"turd " &amp; C7 &amp; "&amp; " &amp; C4 &amp; SUM(A5:A7)</f>
+        <v>turd 12&amp; border12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>5</v>
       </c>
@@ -448,7 +457,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>1</v>
       </c>
@@ -463,7 +472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>1</v>
       </c>

--- a/excel/Test1.xlsx
+++ b/excel/Test1.xlsx
@@ -482,6 +482,10 @@
       <c r="C10">
         <v>1</v>
       </c>
+      <c r="E10">
+        <f>C10+Sheet2!A2</f>
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -491,12 +495,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/excel/Test1.xlsx
+++ b/excel/Test1.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="120" windowWidth="19008" windowHeight="9360"/>
+    <workbookView xWindow="192" yWindow="120" windowWidth="19008" windowHeight="9360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="the poop went to market for ham" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -388,8 +388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -429,10 +429,6 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="str">
-        <f>CONCATENATE("turd",B4,C4,"poop",SUM(A2:A3),COUNTA(A5:A7))</f>
-        <v>turd3borderpoop33</v>
-      </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickTop="1">
       <c r="A5">
@@ -481,10 +477,6 @@
       </c>
       <c r="C10">
         <v>1</v>
-      </c>
-      <c r="E10">
-        <f>C10+Sheet2!A2</f>
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -495,27 +487,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="C4">
+        <f>3+2</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/excel/Test1.xlsx
+++ b/excel/Test1.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amaxw/SunshineFart3000/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="192" yWindow="120" windowWidth="19008" windowHeight="9360"/>
+    <workbookView xWindow="200" yWindow="460" windowWidth="24680" windowHeight="15080" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -30,8 +43,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +111,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -144,12 +162,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -176,14 +194,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -210,6 +229,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -385,26 +405,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="31.8" customHeight="1">
+    <row r="2" spans="1:5" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -412,7 +432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1">
+    <row r="3" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -421,7 +441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" thickTop="1" thickBot="1">
+    <row r="4" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4">
         <f>A2+A3</f>
         <v>3</v>
@@ -434,12 +454,12 @@
         <v>turd3borderpoop33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickTop="1">
+    <row r="5" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -448,7 +468,7 @@
         <v>turd 12&amp; border12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -457,7 +477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -472,7 +492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -494,26 +514,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -524,13 +542,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <f>Sheet1!A2+Sheet1!E10</f>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>